--- a/experiment/result.xlsx
+++ b/experiment/result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="460" windowWidth="36480" windowHeight="21540" tabRatio="500"/>
+    <workbookView xWindow="10140" yWindow="3840" windowWidth="36480" windowHeight="21540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
   <si>
     <t>操作最舒适的多个操作</t>
     <rPh sb="0" eb="1">
@@ -1218,6 +1218,26 @@
     <t>无想法</t>
     <rPh sb="0" eb="1">
       <t>wu'xiang'fa</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男个数</t>
+    <rPh sb="0" eb="1">
+      <t>nan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ge'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女个数</t>
+    <rPh sb="0" eb="1">
+      <t>nv</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ge'shu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1624,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:N34"/>
+    <sheetView tabSelected="1" topLeftCell="P18" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3610,14 +3630,11 @@
       <c r="S28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>45</v>
+      <c r="T28" t="s">
+        <v>101</v>
+      </c>
+      <c r="U28" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
@@ -3634,15 +3651,11 @@
         <f>COUNTIF(Q:Q,R29)</f>
         <v>1</v>
       </c>
-      <c r="T29" s="1" t="s">
-        <v>42</v>
+      <c r="T29">
+        <v>1</v>
       </c>
       <c r="U29" s="1">
-        <f>COUNTIF(R4:R24,1)</f>
-        <v>11</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
@@ -3701,14 +3714,12 @@
         <f t="shared" ref="S30:S39" si="2">COUNTIF(Q:Q,R30)</f>
         <v>2</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>43</v>
+      <c r="T30">
+        <v>1</v>
       </c>
       <c r="U30" s="1">
-        <f>COUNTIF(R4:R24,0)</f>
-        <v>10</v>
-      </c>
-      <c r="V30" s="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -3766,6 +3777,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -3823,8 +3840,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -3880,8 +3903,14 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -3937,8 +3966,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P35" s="1"/>
       <c r="R35" s="1">
         <v>24</v>
@@ -3947,8 +3982,14 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O36" t="s">
         <v>98</v>
       </c>
@@ -3962,8 +4003,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O37" t="s">
         <v>99</v>
       </c>
@@ -3978,8 +4025,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="R38" s="1">
         <v>27</v>
       </c>
@@ -3987,8 +4040,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="R39" s="1">
         <v>28</v>
       </c>
@@ -3996,8 +4055,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="R40" t="s">
         <v>40</v>
       </c>
@@ -4005,7 +4070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -4016,7 +4081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -4024,31 +4089,58 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S44" s="1">
+        <f>COUNTIF(R4:R24,1)</f>
+        <v>11</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S45" s="1">
+        <f>COUNTIF(R4:R24,0)</f>
+        <v>10</v>
+      </c>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -4056,7 +4148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>6</v>
       </c>
@@ -4064,7 +4156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
